--- a/document/Cong_viec_da_lam.xlsx
+++ b/document/Cong_viec_da_lam.xlsx
@@ -9,12 +9,48 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$U$40</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">Đã tìm hiểu </t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Trigger, Procedure</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpringMVC, Spring Boot, Hibernate </t>
+  </si>
+  <si>
+    <t>Template Engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thymeleaf </t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Junit, Spring Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frontend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jquery, Ajax </t>
+  </si>
   <si>
     <t>Các công nghệ đã sử dụng</t>
   </si>
@@ -25,13 +61,7 @@
     <t>Mysql</t>
   </si>
   <si>
-    <t>Framework</t>
-  </si>
-  <si>
     <t xml:space="preserve">SpringMVC + Hibernate </t>
-  </si>
-  <si>
-    <t>Testing</t>
   </si>
   <si>
     <t>Junit + Spring Test</t>
@@ -99,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,11 +151,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,24 +250,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,96 +281,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +296,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,30 +564,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,26 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -629,153 +615,197 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,8 +815,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1129,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C27"/>
+  <dimension ref="B2:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -1141,171 +1180,221 @@
     <col min="3" max="3" width="30.6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>13</v>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="3" t="s">
-        <v>15</v>
+      <c r="B15" s="8"/>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="10"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="3" t="s">
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="8"/>
+      <c r="C28" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="3" t="s">
+      <c r="C30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="3" t="s">
-        <v>25</v>
+    <row r="31" spans="2:3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B27"/>
+  <mergeCells count="8">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="39" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>